--- a/181011_경기기록_omekURLslug주제최종수량파일넘버_김가영.xlsx
+++ b/181011_경기기록_omekURLslug주제최종수량파일넘버_김가영.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="180">
   <si>
     <t>지역 / 주제</t>
   </si>
@@ -638,6 +638,22 @@
   </si>
   <si>
     <t>tif=jpeg(50)+jpeg(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +661,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,14 +720,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -746,7 +754,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1211,22 +1219,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1437,19 +1436,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1757,7 +1747,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1794,6 +1786,9 @@
       <c r="H1" s="52" t="s">
         <v>168</v>
       </c>
+      <c r="I1" s="52" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="53">
@@ -1818,6 +1813,9 @@
       <c r="H2" s="40" t="s">
         <v>159</v>
       </c>
+      <c r="I2" s="40" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="53">
@@ -1842,6 +1840,9 @@
       <c r="H3" s="41" t="s">
         <v>160</v>
       </c>
+      <c r="I3" s="41" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="53">
@@ -1866,6 +1867,9 @@
       <c r="H4" s="41" t="s">
         <v>161</v>
       </c>
+      <c r="I4" s="41" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="53">
@@ -1890,6 +1894,7 @@
       <c r="H5" s="41" t="s">
         <v>162</v>
       </c>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="53">
@@ -1914,6 +1919,7 @@
       <c r="H6" s="41" t="s">
         <v>163</v>
       </c>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="53">
@@ -1938,6 +1944,7 @@
       <c r="H7" s="41" t="s">
         <v>164</v>
       </c>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="53">
@@ -1962,6 +1969,7 @@
       <c r="H8" s="41" t="s">
         <v>165</v>
       </c>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1">
       <c r="A9" s="54">
@@ -1986,6 +1994,7 @@
       <c r="H9" s="42" t="s">
         <v>166</v>
       </c>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A10" s="55"/>
@@ -2003,6 +2012,9 @@
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
       <c r="H10" s="49"/>
+      <c r="I10" s="49">
+        <v>289</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="A11" s="56"/>
@@ -2023,7 +2035,7 @@
       <c r="H11" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="I11" s="69"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" s="36" customFormat="1">
       <c r="A12" s="57">
@@ -2050,7 +2062,7 @@
       <c r="H12" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="70"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" s="36" customFormat="1">
       <c r="A13" s="57">
@@ -2077,7 +2089,7 @@
       <c r="H13" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="70"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="1:9" s="36" customFormat="1">
       <c r="A14" s="57">
@@ -2104,7 +2116,7 @@
       <c r="H14" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="70"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="1:9" s="36" customFormat="1">
       <c r="A15" s="57">
@@ -2131,7 +2143,7 @@
       <c r="H15" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="71"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:9" s="36" customFormat="1">
       <c r="A16" s="57">
@@ -2158,7 +2170,7 @@
       <c r="H16" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="I16" s="71"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="1:9" s="36" customFormat="1">
       <c r="A17" s="57">
@@ -2185,7 +2197,7 @@
       <c r="H17" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="70"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" s="36" customFormat="1">
       <c r="A18" s="57">
@@ -2212,7 +2224,7 @@
       <c r="H18" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="I18" s="71"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="1:9" s="36" customFormat="1">
       <c r="A19" s="57">
@@ -2239,7 +2251,7 @@
       <c r="H19" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="I19" s="71"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:9" s="36" customFormat="1">
       <c r="A20" s="57">
@@ -2266,7 +2278,7 @@
       <c r="H20" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="71"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="1:9" s="36" customFormat="1">
       <c r="A21" s="57">
@@ -2293,34 +2305,34 @@
       <c r="H21" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="I21" s="71"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:9" s="36" customFormat="1">
-      <c r="A22" s="73">
+      <c r="A22" s="70">
         <v>19</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="73">
         <v>83</v>
       </c>
-      <c r="E22" s="77">
+      <c r="E22" s="74">
         <v>102</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="74">
         <v>52</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="I22" s="72"/>
+      <c r="I22" s="74"/>
     </row>
     <row r="23" spans="1:9" s="36" customFormat="1">
       <c r="A23" s="57">
@@ -2347,6 +2359,7 @@
       <c r="H23" s="46" t="s">
         <v>138</v>
       </c>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="1:9" s="36" customFormat="1">
       <c r="A24" s="57">
@@ -2373,6 +2386,7 @@
       <c r="H24" s="46" t="s">
         <v>139</v>
       </c>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="1:9" s="36" customFormat="1">
       <c r="A25" s="57">
@@ -2399,6 +2413,7 @@
       <c r="H25" s="46" t="s">
         <v>140</v>
       </c>
+      <c r="I25" s="46"/>
     </row>
     <row r="26" spans="1:9" s="36" customFormat="1">
       <c r="A26" s="57">
@@ -2425,6 +2440,7 @@
       <c r="H26" s="46" t="s">
         <v>141</v>
       </c>
+      <c r="I26" s="46"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="53">
@@ -2451,6 +2467,7 @@
       <c r="H27" s="41" t="s">
         <v>142</v>
       </c>
+      <c r="I27" s="41"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="53">
@@ -2477,6 +2494,7 @@
       <c r="H28" s="41" t="s">
         <v>143</v>
       </c>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="53">
@@ -2503,6 +2521,7 @@
       <c r="H29" s="41" t="s">
         <v>144</v>
       </c>
+      <c r="I29" s="41"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="53">
@@ -2529,6 +2548,7 @@
       <c r="H30" s="41" t="s">
         <v>145</v>
       </c>
+      <c r="I30" s="41"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="53">
@@ -2555,6 +2575,7 @@
       <c r="H31" s="41" t="s">
         <v>146</v>
       </c>
+      <c r="I31" s="41"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="53">
@@ -2581,6 +2602,7 @@
       <c r="H32" s="41" t="s">
         <v>147</v>
       </c>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="58" t="s">
@@ -2607,6 +2629,7 @@
       <c r="H33" s="41" t="s">
         <v>148</v>
       </c>
+      <c r="I33" s="41"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="58" t="s">
@@ -2633,6 +2656,7 @@
       <c r="H34" s="41" t="s">
         <v>149</v>
       </c>
+      <c r="I34" s="41"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="53">
@@ -2659,6 +2683,7 @@
       <c r="H35" s="41" t="s">
         <v>150</v>
       </c>
+      <c r="I35" s="41"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="53">
@@ -2685,6 +2710,7 @@
       <c r="H36" s="41" t="s">
         <v>151</v>
       </c>
+      <c r="I36" s="41"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="53">
@@ -2711,6 +2737,7 @@
       <c r="H37" s="41" t="s">
         <v>152</v>
       </c>
+      <c r="I37" s="41"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="53">
@@ -2737,6 +2764,7 @@
       <c r="H38" s="41" t="s">
         <v>153</v>
       </c>
+      <c r="I38" s="41"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="53">
@@ -2763,6 +2791,7 @@
       <c r="H39" s="41" t="s">
         <v>154</v>
       </c>
+      <c r="I39" s="41"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="53">
@@ -2789,6 +2818,7 @@
       <c r="H40" s="41" t="s">
         <v>155</v>
       </c>
+      <c r="I40" s="41"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="53">
@@ -2815,6 +2845,7 @@
       <c r="H41" s="41" t="s">
         <v>156</v>
       </c>
+      <c r="I41" s="41"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="53">
@@ -2841,6 +2872,7 @@
       <c r="H42" s="41" t="s">
         <v>157</v>
       </c>
+      <c r="I42" s="41"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" thickBot="1">
       <c r="A43" s="54">
@@ -2867,6 +2899,7 @@
       <c r="H43" s="68" t="s">
         <v>158</v>
       </c>
+      <c r="I43" s="68"/>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="18" thickTop="1" thickBot="1">
@@ -2888,6 +2921,7 @@
         <v>1071</v>
       </c>
       <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="1:10" ht="17.25" thickBot="1">
       <c r="A45" s="60"/>
@@ -2902,6 +2936,7 @@
       <c r="H45" s="47" t="s">
         <v>126</v>
       </c>
+      <c r="I45" s="47"/>
     </row>
     <row r="46" spans="1:10" ht="18" thickTop="1" thickBot="1">
       <c r="A46" s="59"/>
@@ -2916,6 +2951,7 @@
       <c r="F46" s="43"/>
       <c r="G46" s="43"/>
       <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="62"/>
@@ -2930,6 +2966,7 @@
       <c r="H47" s="48" t="s">
         <v>126</v>
       </c>
+      <c r="I47" s="48"/>
     </row>
     <row r="48" spans="1:10" s="1" customFormat="1">
       <c r="A48" s="63">
@@ -2952,7 +2989,7 @@
       <c r="H48" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="I48" s="69"/>
+      <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9" s="1" customFormat="1">
       <c r="A49" s="63">
@@ -2975,7 +3012,7 @@
       <c r="H49" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="I49" s="69"/>
+      <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" s="1" customFormat="1">
       <c r="A50" s="63">
@@ -2998,7 +3035,7 @@
       <c r="H50" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="I50" s="69"/>
+      <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1">
       <c r="A51" s="63">
@@ -3021,7 +3058,7 @@
       <c r="H51" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="I51" s="69"/>
+      <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="17.25" thickBot="1">
       <c r="A52" s="59"/>
@@ -3039,6 +3076,9 @@
       <c r="F52" s="49"/>
       <c r="G52" s="49"/>
       <c r="H52" s="49"/>
+      <c r="I52" s="49" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="17.25" thickBot="1">
       <c r="A53" s="59"/>
@@ -3059,6 +3099,7 @@
         <v>1621</v>
       </c>
       <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1">

--- a/181011_경기기록_omekURLslug주제최종수량파일넘버_김가영.xlsx
+++ b/181011_경기기록_omekURLslug주제최종수량파일넘버_김가영.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="177">
   <si>
     <t>지역 / 주제</t>
   </si>
@@ -641,19 +641,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>154</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1747,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1787,7 +1775,7 @@
         <v>168</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1813,9 +1801,7 @@
       <c r="H2" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="40" t="s">
-        <v>179</v>
-      </c>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="53">
@@ -1840,9 +1826,7 @@
       <c r="H3" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="41" t="s">
-        <v>179</v>
-      </c>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="53">
@@ -1867,9 +1851,7 @@
       <c r="H4" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>178</v>
-      </c>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="53">
@@ -2012,9 +1994,7 @@
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
       <c r="H10" s="49"/>
-      <c r="I10" s="49">
-        <v>289</v>
-      </c>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="A11" s="56"/>
@@ -3076,9 +3056,7 @@
       <c r="F52" s="49"/>
       <c r="G52" s="49"/>
       <c r="H52" s="49"/>
-      <c r="I52" s="49" t="s">
-        <v>176</v>
-      </c>
+      <c r="I52" s="49"/>
     </row>
     <row r="53" spans="1:9" ht="17.25" thickBot="1">
       <c r="A53" s="59"/>
